--- a/无菌电子件清单.xlsx
+++ b/无菌电子件清单.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30">
   <si>
     <t>图片</t>
   </si>
@@ -100,6 +100,12 @@
   </si>
   <si>
     <t>https://item.jd.com/1184212.html</t>
+  </si>
+  <si>
+    <t>电源线</t>
+  </si>
+  <si>
+    <t>1m</t>
   </si>
 </sst>
 </file>
@@ -107,9 +113,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
@@ -143,6 +149,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -152,6 +181,29 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -159,6 +211,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
@@ -167,7 +227,44 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -182,98 +279,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -306,181 +312,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -512,23 +518,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -557,17 +548,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -579,6 +559,41 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -597,15 +612,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -614,10 +620,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -626,16 +632,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -644,119 +650,119 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -800,6 +806,21 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="10" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="10" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -893,7 +914,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9525" y="5143500"/>
+          <a:off x="9525" y="4743450"/>
           <a:ext cx="645160" cy="544195"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -935,7 +956,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9525" y="5829300"/>
+          <a:off x="9525" y="5429250"/>
           <a:ext cx="552450" cy="559435"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -978,7 +999,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="276225" y="4029075"/>
+          <a:off x="276225" y="3629025"/>
           <a:ext cx="704215" cy="475615"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1024,7 +1045,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="162560" y="1724025"/>
+          <a:off x="162560" y="1323975"/>
           <a:ext cx="505460" cy="549275"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1062,7 +1083,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="143510" y="5181600"/>
+          <a:off x="143510" y="4781550"/>
           <a:ext cx="796925" cy="542925"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1100,7 +1121,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="2286000"/>
+          <a:off x="0" y="1885950"/>
           <a:ext cx="781050" cy="581025"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1142,7 +1163,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="381000" y="2886075"/>
+          <a:off x="381000" y="2486025"/>
           <a:ext cx="314960" cy="516890"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1184,7 +1205,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="161925" y="3438525"/>
+          <a:off x="161925" y="3038475"/>
           <a:ext cx="790575" cy="541020"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1226,7 +1247,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="400050" y="600075"/>
+          <a:off x="400050" y="200025"/>
           <a:ext cx="295910" cy="538480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1268,8 +1289,50 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="238125" y="1181100"/>
+          <a:off x="238125" y="781050"/>
           <a:ext cx="684530" cy="524510"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>831215</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>562610</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="图片 11"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="323850" y="6038850"/>
+          <a:ext cx="507365" cy="524510"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1570,10 +1633,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12:F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="45" customHeight="1" outlineLevelCol="5"/>
@@ -1586,7 +1649,7 @@
     <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" ht="13.5" spans="1:6">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1761,6 +1824,22 @@
         <v>27</v>
       </c>
       <c r="F11" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" customHeight="1" spans="1:6">
+      <c r="A12" s="15"/>
+      <c r="B12" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="17">
+        <v>1</v>
+      </c>
+      <c r="E12" s="18"/>
+      <c r="F12" s="19" t="s">
         <v>12</v>
       </c>
     </row>
